--- a/Designer/Export/Output/Rule/R_Loc.xlsx
+++ b/Designer/Export/Output/Rule/R_Loc.xlsx
@@ -78,7 +78,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="c279ee46-c9ad-4c3b-b7e1-14c9473b067f" xfId="1"/>
+    <cellStyle name="0ff990e9-7751-440c-8178-533e00172f94" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
